--- a/biology/Médecine/Andrée_Yanacopoulo/Andrée_Yanacopoulo.xlsx
+++ b/biology/Médecine/Andrée_Yanacopoulo/Andrée_Yanacopoulo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Yanacopoulo</t>
+          <t>Andrée_Yanacopoulo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrée Yanacopoulo est une médecin, écrivaine, traductrice, professeure et sociologue canadienne née à Tunis, en Tunisie sous protectorat français, le 14 novembre 1927[1]. Elle a été la compagne d'Hubert Aquin de 1963 à 1977 avec qui elle a eu un fils Emmanuel Aquin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrée Yanacopoulo est une médecin, écrivaine, traductrice, professeure et sociologue canadienne née à Tunis, en Tunisie sous protectorat français, le 14 novembre 1927. Elle a été la compagne d'Hubert Aquin de 1963 à 1977 avec qui elle a eu un fils Emmanuel Aquin.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Yanacopoulo</t>
+          <t>Andrée_Yanacopoulo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a fait des études en médecine à l'Université de Lyon, France et elle est aussi détentrice d'une maîtrise en sociologie[1]. Elle s'établit au Québec en 1960. De 1961 à 1964, elle est professeure de sociologie à l'Université de Montréal. Elle enseigne ensuite au Collège Sainte-Marie et à l'Université du Québec à Montréal jusqu'en 1973, puis au Cégep de Saint-Laurent jusqu'en 1989.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fait des études en médecine à l'Université de Lyon, France et elle est aussi détentrice d'une maîtrise en sociologie. Elle s'établit au Québec en 1960. De 1961 à 1964, elle est professeure de sociologie à l'Université de Montréal. Elle enseigne ensuite au Collège Sainte-Marie et à l'Université du Québec à Montréal jusqu'en 1973, puis au Cégep de Saint-Laurent jusqu'en 1989.
 En parallèle, elle codirige avec Nicole Brossard pendant six ans la collection Délire aux éditions Parti pris et occupe plusieurs autres postes chez différents éditeurs.
 Elle a écrit un livre intitulé Signé Hubert Aquin : enquête sur le suicide d'un écrivain, à la suite du décès de son conjoint.
-De 1999 à 2010, elle a été éditrice pour sa maison d'édition Point de fuite[2],[3].
+De 1999 à 2010, elle a été éditrice pour sa maison d'édition Point de fuite,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Yanacopoulo</t>
+          <t>Andrée_Yanacopoulo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au nom du Père, du Fils et de Duplessis, 1984
 Signé Hubert Aquin - enquête sur le suicide d’un écrivain (en collaboration avec Gordon Sheppard), 1985
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Yanacopoulo</t>
+          <t>Andrée_Yanacopoulo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Comment aimer vivre seul, Lynn Shanan (« Living alone and liking it ! »), 1982
 La Mémoire, Elizabeth Loftus («Memory), 1983</t>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Yanacopoulo</t>
+          <t>Andrée_Yanacopoulo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1993 - Finaliste au Prix du Gouverneur général, catégorie essais, Hans Selye ou la Cathédrale du stress</t>
         </is>
